--- a/JavaApplication19/src/excel/Cuentas.xlsx
+++ b/JavaApplication19/src/excel/Cuentas.xlsx
@@ -1,26 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378AF0CF-1DFB-4B70-9FE0-3BB3F45D52F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>CANT.</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t>CAJA</t>
+  </si>
+  <si>
+    <t>MERCADO PAGO</t>
+  </si>
+  <si>
+    <t>X LIBERAR</t>
+  </si>
+  <si>
+    <t>COMPRAS EN TRANSITO</t>
+  </si>
+  <si>
+    <t>COSTO DE INVENTARIO</t>
+  </si>
+  <si>
+    <t>EQUIPO Y MOBILIARIO</t>
+  </si>
+  <si>
+    <t>DEUDAS A COBRAR</t>
+  </si>
+  <si>
+    <t>DEUDAS A PAGAR</t>
+  </si>
+  <si>
+    <t>TOTAL EN CAPITAL</t>
+  </si>
+  <si>
+    <t>TOTAL NETO</t>
+  </si>
+  <si>
+    <t>CAPITAL ANTERIOR</t>
+  </si>
+  <si>
+    <t>GASTOS TOTALES</t>
+  </si>
+  <si>
+    <t>INGRESOS TOTALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUGAS </t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>EGRESOS</t>
+  </si>
+  <si>
+    <t>UTILIDADES</t>
+  </si>
+  <si>
+    <t>UTILIDAD / PERDIDA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +111,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +191,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +280,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>202402</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="657224" cy="492981"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="12 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935F2C75-F766-4D36-BD9B-03552032EF4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6488902" y="11906"/>
+          <a:ext cx="657224" cy="492981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -114,7 +378,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +413,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -330,13 +594,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="72" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10357.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>37790.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
+        <v>32472.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9">
+        <v>75260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="12">
+        <f>SUM(C2:C9)</f>
+        <v>84650.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="15">
+        <f>C11-C10</f>
+        <v>9390.3300000000017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>85509.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3703.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="15">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1635.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="17">
+        <f>C19-C18</f>
+        <v>-885.86999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="16">
+        <f>C13-C16+C17-C18+C19</f>
+        <v>84650.33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>